--- a/app/products_report.xlsx
+++ b/app/products_report.xlsx
@@ -613,7 +613,7 @@
         <v>1999.99</v>
       </c>
       <c r="F7" t="n">
-        <v>69.23076923076923</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +665,7 @@
         <v>1199.99</v>
       </c>
       <c r="F9" t="n">
-        <v>33.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="10">
@@ -745,7 +745,7 @@
         <v>1599.99</v>
       </c>
       <c r="F12" t="n">
-        <v>87.5</v>
+        <v>85.71428571428571</v>
       </c>
     </row>
     <row r="13">
@@ -849,7 +849,7 @@
         <v>2499.99</v>
       </c>
       <c r="F16" t="n">
-        <v>83.33333333333334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -953,7 +953,7 @@
         <v>374.25</v>
       </c>
       <c r="F20" t="n">
-        <v>80</v>
+        <v>77.77777777777779</v>
       </c>
     </row>
     <row r="21">
@@ -979,7 +979,7 @@
         <v>1999.99</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>57.14285714285714</v>
       </c>
     </row>
     <row r="22">
@@ -1187,7 +1187,7 @@
         <v>1749.99</v>
       </c>
       <c r="F29" t="n">
-        <v>15.38461538461539</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="30">
@@ -1213,7 +1213,7 @@
         <v>1749.99</v>
       </c>
       <c r="F30" t="n">
-        <v>23.07692307692308</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="31">
@@ -1343,7 +1343,7 @@
         <v>265</v>
       </c>
       <c r="F35" t="n">
-        <v>87.5</v>
+        <v>85.71428571428571</v>
       </c>
     </row>
     <row r="36">
@@ -1421,7 +1421,7 @@
         <v>1549.99</v>
       </c>
       <c r="F38" t="n">
-        <v>66.66666666666666</v>
+        <v>64.28571428571429</v>
       </c>
     </row>
     <row r="39">
@@ -1525,7 +1525,7 @@
         <v>295</v>
       </c>
       <c r="F42" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1603,7 +1603,7 @@
         <v>1199.99</v>
       </c>
       <c r="F45" t="n">
-        <v>21.42857142857143</v>
+        <v>15.38461538461539</v>
       </c>
     </row>
     <row r="46">
@@ -1707,7 +1707,7 @@
         <v>182.5</v>
       </c>
       <c r="F49" t="n">
-        <v>37.5</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="50">
@@ -1759,7 +1759,7 @@
         <v>1499.99</v>
       </c>
       <c r="F51" t="n">
-        <v>66.66666666666666</v>
+        <v>64.28571428571429</v>
       </c>
     </row>
     <row r="52">
@@ -1785,7 +1785,7 @@
         <v>1099.99</v>
       </c>
       <c r="F52" t="n">
-        <v>90</v>
+        <v>88.88888888888889</v>
       </c>
     </row>
     <row r="53">
@@ -1811,7 +1811,7 @@
         <v>787.49</v>
       </c>
       <c r="F53" t="n">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="54">
@@ -1863,7 +1863,7 @@
         <v>974.99</v>
       </c>
       <c r="F55" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -1889,7 +1889,7 @@
         <v>1599.99</v>
       </c>
       <c r="F56" t="n">
-        <v>78.57142857142857</v>
+        <v>76.92307692307693</v>
       </c>
     </row>
     <row r="57">
@@ -1993,7 +1993,7 @@
         <v>1249.99</v>
       </c>
       <c r="F60" t="n">
-        <v>69.23076923076923</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="61">
@@ -2149,7 +2149,7 @@
         <v>1599.99</v>
       </c>
       <c r="F66" t="n">
-        <v>26.66666666666667</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="67">
@@ -2175,7 +2175,7 @@
         <v>297.5</v>
       </c>
       <c r="F67" t="n">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="68">
@@ -2201,7 +2201,7 @@
         <v>1449.99</v>
       </c>
       <c r="F68" t="n">
-        <v>84.61538461538461</v>
+        <v>83.33333333333334</v>
       </c>
     </row>
     <row r="69">
@@ -2227,7 +2227,7 @@
         <v>486.75</v>
       </c>
       <c r="F69" t="n">
-        <v>90</v>
+        <v>88.88888888888889</v>
       </c>
     </row>
     <row r="70">
@@ -2279,7 +2279,7 @@
         <v>1599.99</v>
       </c>
       <c r="F71" t="n">
-        <v>23.07692307692308</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="72">
@@ -2409,7 +2409,7 @@
         <v>1199.99</v>
       </c>
       <c r="F76" t="n">
-        <v>76.92307692307693</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
@@ -2487,7 +2487,7 @@
         <v>449.5</v>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2513,7 +2513,7 @@
         <v>1249.99</v>
       </c>
       <c r="F80" t="n">
-        <v>18.75</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="81">
@@ -2539,7 +2539,7 @@
         <v>2099.99</v>
       </c>
       <c r="F81" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="82">
@@ -2565,7 +2565,7 @@
         <v>1449.99</v>
       </c>
       <c r="F82" t="n">
-        <v>40</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="83">
@@ -2591,7 +2591,7 @@
         <v>1299.99</v>
       </c>
       <c r="F83" t="n">
-        <v>46.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="84">
@@ -2617,7 +2617,7 @@
         <v>2499.99</v>
       </c>
       <c r="F84" t="n">
-        <v>83.33333333333334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
@@ -2643,7 +2643,7 @@
         <v>1449.99</v>
       </c>
       <c r="F85" t="n">
-        <v>46.15384615384615</v>
+        <v>41.66666666666667</v>
       </c>
     </row>
     <row r="86">
@@ -2695,7 +2695,7 @@
         <v>1349.99</v>
       </c>
       <c r="F87" t="n">
-        <v>57.14285714285714</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88">
@@ -2851,7 +2851,7 @@
         <v>2399.99</v>
       </c>
       <c r="F93" t="n">
-        <v>66.66666666666666</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94">
@@ -2903,7 +2903,7 @@
         <v>1549.99</v>
       </c>
       <c r="F95" t="n">
-        <v>75</v>
+        <v>72.72727272727273</v>
       </c>
     </row>
     <row r="96">
@@ -3009,7 +3009,7 @@
         <v>649.99</v>
       </c>
       <c r="F99" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
@@ -3035,7 +3035,7 @@
         <v>1499.99</v>
       </c>
       <c r="F100" t="n">
-        <v>53.84615384615385</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101">
@@ -3061,7 +3061,7 @@
         <v>232.5</v>
       </c>
       <c r="F101" t="n">
-        <v>42.85714285714285</v>
+        <v>38.46153846153847</v>
       </c>
     </row>
   </sheetData>
